--- a/test_data/fixtures.xlsx
+++ b/test_data/fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Code Projects\sidekick\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0270AC4E-E377-4602-AA91-4B943A8B897D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359919B4-A6E9-4D15-BEC9-BAA9D80E0B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixtures" sheetId="1" r:id="rId1"/>
@@ -725,15 +725,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3E800-38A2-42C3-B866-B223FB14183A}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B3F856-4532-4CE6-9B0F-DD11EBD8C6EC}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test_data/fixtures.xlsx
+++ b/test_data/fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Code Projects\sidekick\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359919B4-A6E9-4D15-BEC9-BAA9D80E0B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ACFBE8-4D92-4451-A055-BCDCCE13C207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixtures" sheetId="1" r:id="rId1"/>
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B3F856-4532-4CE6-9B0F-DD11EBD8C6EC}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test_data/fixtures.xlsx
+++ b/test_data/fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Code Projects\sidekick\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ACFBE8-4D92-4451-A055-BCDCCE13C207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C86EBA0-63B7-484C-848F-BC5451CAF24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixtures" sheetId="1" r:id="rId1"/>
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B3F856-4532-4CE6-9B0F-DD11EBD8C6EC}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1894,7 +1894,7 @@
         <v>3.5</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">

--- a/test_data/fixtures.xlsx
+++ b/test_data/fixtures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Code Projects\sidekick\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C86EBA0-63B7-484C-848F-BC5451CAF24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E691EC0-A9FD-400D-BA53-3AF6085323F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixtures" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="79">
   <si>
     <t>Sequence #</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>Red Truss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universe </t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -723,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3E800-38A2-42C3-B866-B223FB14183A}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,9 +740,10 @@
     <col min="1" max="1" width="15.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -749,8 +756,14 @@
       <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -763,8 +776,14 @@
       <c r="D2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -777,8 +796,14 @@
       <c r="D3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -791,8 +816,14 @@
       <c r="D4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -805,8 +836,14 @@
       <c r="D5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -819,8 +856,14 @@
       <c r="D6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -833,8 +876,14 @@
       <c r="D7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -847,8 +896,14 @@
       <c r="D8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -861,8 +916,14 @@
       <c r="D9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -875,8 +936,14 @@
       <c r="D10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -889,8 +956,14 @@
       <c r="D11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -903,8 +976,14 @@
       <c r="D12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -917,8 +996,14 @@
       <c r="D13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -931,8 +1016,14 @@
       <c r="D14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -945,8 +1036,14 @@
       <c r="D15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -959,8 +1056,14 @@
       <c r="D16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -973,8 +1076,14 @@
       <c r="D17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -987,8 +1096,14 @@
       <c r="D18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1001,8 +1116,14 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1015,8 +1136,14 @@
       <c r="D20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1029,8 +1156,14 @@
       <c r="D21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1043,8 +1176,14 @@
       <c r="D22" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1057,8 +1196,14 @@
       <c r="D23" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1071,8 +1216,14 @@
       <c r="D24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1085,8 +1236,14 @@
       <c r="D25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1099,8 +1256,14 @@
       <c r="D26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1113,8 +1276,14 @@
       <c r="D27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1127,8 +1296,14 @@
       <c r="D28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1141,8 +1316,14 @@
       <c r="D29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1155,8 +1336,14 @@
       <c r="D30" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1169,8 +1356,14 @@
       <c r="D31" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1183,8 +1376,14 @@
       <c r="D32" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1197,8 +1396,14 @@
       <c r="D33" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1211,8 +1416,14 @@
       <c r="D34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1225,8 +1436,14 @@
       <c r="D35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1239,8 +1456,14 @@
       <c r="D36" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1253,8 +1476,14 @@
       <c r="D37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1267,8 +1496,14 @@
       <c r="D38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1281,8 +1516,14 @@
       <c r="D39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1295,8 +1536,14 @@
       <c r="D40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1309,8 +1556,14 @@
       <c r="D41" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1323,8 +1576,14 @@
       <c r="D42" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1337,8 +1596,14 @@
       <c r="D43" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1351,8 +1616,14 @@
       <c r="D44" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1365,8 +1636,14 @@
       <c r="D45" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1379,8 +1656,14 @@
       <c r="D46" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1393,8 +1676,14 @@
       <c r="D47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1407,8 +1696,14 @@
       <c r="D48" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1421,8 +1716,14 @@
       <c r="D49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1435,8 +1736,14 @@
       <c r="D50" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1449,8 +1756,14 @@
       <c r="D51" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1463,8 +1776,14 @@
       <c r="D52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1477,8 +1796,14 @@
       <c r="D53" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1491,8 +1816,14 @@
       <c r="D54" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1505,8 +1836,14 @@
       <c r="D55" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1519,8 +1856,14 @@
       <c r="D56" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1533,8 +1876,14 @@
       <c r="D57" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1547,8 +1896,14 @@
       <c r="D58" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1561,8 +1916,14 @@
       <c r="D59" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1575,8 +1936,14 @@
       <c r="D60" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1589,8 +1956,14 @@
       <c r="D61" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1603,8 +1976,14 @@
       <c r="D62" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1617,8 +1996,14 @@
       <c r="D63" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1631,8 +2016,14 @@
       <c r="D64" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1644,6 +2035,12 @@
       </c>
       <c r="D65" t="s">
         <v>76</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1656,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B3F856-4532-4CE6-9B0F-DD11EBD8C6EC}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test_data/fixtures.xlsx
+++ b/test_data/fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Code Projects\sidekick\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E691EC0-A9FD-400D-BA53-3AF6085323F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC53C24-BD55-463A-9BA2-BBAC5D56C67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixtures" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A14" sqref="A14:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test_data/fixtures.xlsx
+++ b/test_data/fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Code Projects\sidekick\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1081E3BA-B48B-4C3A-805C-932BCBED8AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03A973-E217-4B2B-9448-35F7FB6A40DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
   </bookViews>
@@ -1564,7 +1564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1592,7 +1592,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12283,8 +12282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B3F856-4532-4CE6-9B0F-DD11EBD8C6EC}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12349,7 +12348,12 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -12888,7 +12892,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+      <c r="A68" t="s">
         <v>311</v>
       </c>
       <c r="B68" s="2">

--- a/test_data/fixtures.xlsx
+++ b/test_data/fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Code Projects\sidekick\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE51B7-BF45-48BC-969C-7024CF8D2FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE1E218-19BA-405C-8392-7BEF665C2DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixtures" sheetId="6" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="256">
   <si>
     <t>Patt 2013</t>
   </si>
@@ -348,15 +348,261 @@
     <t>Nexus Aw 7x7</t>
   </si>
   <si>
-    <t>Standard</t>
+    <t>604</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>68ch</t>
   </si>
   <si>
     <t>Dolly 1</t>
   </si>
   <si>
+    <t>AFL GF24</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
     <t>Dolly 2</t>
   </si>
   <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
     <t>Dolly 3</t>
   </si>
   <si>
@@ -366,7 +612,214 @@
     <t>Dolly 5</t>
   </si>
   <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
     <t>Dolly 6</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>Dolly 7</t>
+  </si>
+  <si>
+    <t>Dolly 8</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>Dolly 9</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Dolly 10</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>Dolly 11</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>Dolly 12</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1212</t>
   </si>
 </sst>
 </file>
@@ -414,7 +867,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,14 +880,8 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -462,24 +909,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,7 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488659CA-7F71-4C5B-A05A-0142058ADA96}">
-  <dimension ref="A1:F390"/>
+  <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,7 +1329,7 @@
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>71</v>
       </c>
@@ -916,18 +1349,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -935,19 +1368,22 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="G2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -955,19 +1391,22 @@
       <c r="F3">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="G3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -975,19 +1414,22 @@
       <c r="F4">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="G4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -995,139 +1437,160 @@
       <c r="F5">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="G5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="G6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1135,19 +1598,22 @@
       <c r="F12">
         <v>273</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="G12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1155,19 +1621,22 @@
       <c r="F13">
         <v>341</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1175,19 +1644,22 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="G14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1195,19 +1667,22 @@
       <c r="F15">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="G15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1215,19 +1690,22 @@
       <c r="F16">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="G16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1235,139 +1713,160 @@
       <c r="F17">
         <v>205</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="G17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -1375,19 +1874,22 @@
       <c r="F24">
         <v>273</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="G24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1395,19 +1897,22 @@
       <c r="F25">
         <v>341</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="G25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -1415,19 +1920,22 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1435,19 +1943,22 @@
       <c r="F27">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="G27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -1455,19 +1966,22 @@
       <c r="F28">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="G28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1475,139 +1989,160 @@
       <c r="F29">
         <v>205</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13" t="s">
+      <c r="G29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
       <c r="F33">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -1615,19 +2150,22 @@
       <c r="F36">
         <v>273</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="13" t="s">
+      <c r="G36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -1635,19 +2173,22 @@
       <c r="F37">
         <v>341</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="G37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -1655,19 +2196,22 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="G38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E39">
         <v>7</v>
@@ -1675,19 +2219,22 @@
       <c r="F39">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13" t="s">
+      <c r="G39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -1695,19 +2242,22 @@
       <c r="F40">
         <v>137</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13" t="s">
+      <c r="G40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -1715,139 +2265,160 @@
       <c r="F41">
         <v>205</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="13" t="s">
+      <c r="G41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E44">
         <v>8</v>
       </c>
       <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E45">
         <v>8</v>
       </c>
       <c r="F45">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E48">
         <v>8</v>
@@ -1855,19 +2426,22 @@
       <c r="F48">
         <v>273</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="13" t="s">
+      <c r="G48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E49">
         <v>8</v>
@@ -1875,19 +2449,22 @@
       <c r="F49">
         <v>341</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13" t="s">
+      <c r="G49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E50">
         <v>9</v>
@@ -1895,19 +2472,22 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="G50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E51">
         <v>9</v>
@@ -1915,19 +2495,22 @@
       <c r="F51">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="13" t="s">
+      <c r="G51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E52">
         <v>9</v>
@@ -1935,19 +2518,22 @@
       <c r="F52">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="13" t="s">
+      <c r="G52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E53">
         <v>9</v>
@@ -1955,139 +2541,160 @@
       <c r="F53">
         <v>205</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="13" t="s">
+      <c r="G53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="F57">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -2095,19 +2702,22 @@
       <c r="F60">
         <v>273</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="13" t="s">
+      <c r="G60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E61">
         <v>10</v>
@@ -2115,19 +2725,22 @@
       <c r="F61">
         <v>341</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="13" t="s">
+      <c r="G61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E62">
         <v>11</v>
@@ -2135,19 +2748,22 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="13" t="s">
+      <c r="G62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E63">
         <v>11</v>
@@ -2155,19 +2771,22 @@
       <c r="F63">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="13" t="s">
+      <c r="G63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E64">
         <v>11</v>
@@ -2175,19 +2794,22 @@
       <c r="F64">
         <v>137</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="13" t="s">
+      <c r="G64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E65">
         <v>11</v>
@@ -2195,139 +2817,160 @@
       <c r="F65">
         <v>205</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="13" t="s">
+      <c r="G65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E66">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E67">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E68">
         <v>12</v>
       </c>
       <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E69">
         <v>12</v>
       </c>
       <c r="F69">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>273</v>
+      </c>
+      <c r="G70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>104</v>
       </c>
-      <c r="E70">
-        <v>12</v>
-      </c>
-      <c r="F70">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E71">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E72">
         <v>12</v>
@@ -2335,19 +2978,22 @@
       <c r="F72">
         <v>273</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="13" t="s">
+      <c r="G72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E73">
         <v>12</v>
@@ -2355,352 +3001,1723 @@
       <c r="F73">
         <v>341</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74"/>
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75"/>
-      <c r="B75"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76"/>
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77"/>
-      <c r="B77"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78"/>
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79"/>
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80"/>
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81"/>
-      <c r="B81"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82"/>
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83"/>
-      <c r="B83"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84"/>
-      <c r="B84"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85"/>
-      <c r="B85"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86"/>
-      <c r="B86"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87"/>
-      <c r="B87"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88"/>
-      <c r="B88"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89"/>
-      <c r="B89"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90"/>
-      <c r="B90"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91"/>
-      <c r="B91"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92"/>
-      <c r="B92"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93"/>
-      <c r="B93"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94"/>
-      <c r="B94"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95"/>
-      <c r="B95"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96"/>
-      <c r="B96"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97"/>
-      <c r="B97"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98"/>
-      <c r="B98"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99"/>
-      <c r="B99"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100"/>
-      <c r="B100"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101"/>
-      <c r="B101"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102"/>
-      <c r="B102"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103"/>
-      <c r="B103"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104"/>
-      <c r="B104"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105"/>
-      <c r="B105"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106"/>
-      <c r="B106"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107"/>
-      <c r="B107"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108"/>
-      <c r="B108"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109"/>
-      <c r="B109"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110"/>
-      <c r="B110"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111"/>
-      <c r="B111"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112"/>
-      <c r="B112"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113"/>
-      <c r="B113"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114"/>
-      <c r="B114"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115"/>
-      <c r="B115"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116"/>
-      <c r="B116"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117"/>
-      <c r="B117"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118"/>
-      <c r="B118"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119"/>
-      <c r="B119"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120"/>
-      <c r="B120"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121"/>
-      <c r="B121"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122"/>
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123"/>
-      <c r="B123"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124"/>
-      <c r="B124"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125"/>
-      <c r="B125"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126"/>
-      <c r="B126"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127"/>
-      <c r="B127"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128"/>
-      <c r="B128"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129"/>
-      <c r="B129"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130"/>
-      <c r="B130"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131"/>
-      <c r="B131"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132"/>
-      <c r="B132"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133"/>
-      <c r="B133"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134"/>
-      <c r="B134"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135"/>
-      <c r="B135"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136"/>
-      <c r="B136"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137"/>
-      <c r="B137"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138"/>
-      <c r="B138"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139"/>
-      <c r="B139"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140"/>
-      <c r="B140"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141"/>
-      <c r="B141"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142"/>
-      <c r="B142"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143"/>
-      <c r="B143"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144"/>
-      <c r="B144"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145"/>
-      <c r="B145"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74">
+        <v>13</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75">
+        <v>13</v>
+      </c>
+      <c r="F75">
+        <v>69</v>
+      </c>
+      <c r="G75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76">
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <v>137</v>
+      </c>
+      <c r="G76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>205</v>
+      </c>
+      <c r="G77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79">
+        <v>14</v>
+      </c>
+      <c r="F79">
+        <v>69</v>
+      </c>
+      <c r="G79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>137</v>
+      </c>
+      <c r="G80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81">
+        <v>14</v>
+      </c>
+      <c r="F81">
+        <v>205</v>
+      </c>
+      <c r="G81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" t="s">
+        <v>192</v>
+      </c>
+      <c r="E82">
+        <v>13</v>
+      </c>
+      <c r="F82">
+        <v>273</v>
+      </c>
+      <c r="G82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83">
+        <v>13</v>
+      </c>
+      <c r="F83">
+        <v>341</v>
+      </c>
+      <c r="G83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84">
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>273</v>
+      </c>
+      <c r="G84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>341</v>
+      </c>
+      <c r="G85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" t="s">
+        <v>193</v>
+      </c>
+      <c r="E86">
+        <v>15</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" t="s">
+        <v>193</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>69</v>
+      </c>
+      <c r="G87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" t="s">
+        <v>193</v>
+      </c>
+      <c r="E88">
+        <v>15</v>
+      </c>
+      <c r="F88">
+        <v>137</v>
+      </c>
+      <c r="G88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89">
+        <v>15</v>
+      </c>
+      <c r="F89">
+        <v>205</v>
+      </c>
+      <c r="G89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" t="s">
+        <v>193</v>
+      </c>
+      <c r="E90">
+        <v>16</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" t="s">
+        <v>193</v>
+      </c>
+      <c r="E91">
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <v>69</v>
+      </c>
+      <c r="G91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92">
+        <v>16</v>
+      </c>
+      <c r="F92">
+        <v>137</v>
+      </c>
+      <c r="G92" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" t="s">
+        <v>193</v>
+      </c>
+      <c r="E93">
+        <v>16</v>
+      </c>
+      <c r="F93">
+        <v>205</v>
+      </c>
+      <c r="G93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" t="s">
+        <v>193</v>
+      </c>
+      <c r="E94">
+        <v>15</v>
+      </c>
+      <c r="F94">
+        <v>273</v>
+      </c>
+      <c r="G94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" t="s">
+        <v>193</v>
+      </c>
+      <c r="E95">
+        <v>15</v>
+      </c>
+      <c r="F95">
+        <v>341</v>
+      </c>
+      <c r="G95" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96">
+        <v>16</v>
+      </c>
+      <c r="F96">
+        <v>273</v>
+      </c>
+      <c r="G96" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>165</v>
+      </c>
+      <c r="D97" t="s">
+        <v>193</v>
+      </c>
+      <c r="E97">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>341</v>
+      </c>
+      <c r="G97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" t="s">
+        <v>205</v>
+      </c>
+      <c r="E98">
+        <v>17</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" t="s">
+        <v>205</v>
+      </c>
+      <c r="E99">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>69</v>
+      </c>
+      <c r="G99" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" t="s">
+        <v>205</v>
+      </c>
+      <c r="E100">
+        <v>17</v>
+      </c>
+      <c r="F100">
+        <v>137</v>
+      </c>
+      <c r="G100" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101">
+        <v>17</v>
+      </c>
+      <c r="F101">
+        <v>205</v>
+      </c>
+      <c r="G101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" t="s">
+        <v>205</v>
+      </c>
+      <c r="E102">
+        <v>18</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>165</v>
+      </c>
+      <c r="D103" t="s">
+        <v>205</v>
+      </c>
+      <c r="E103">
+        <v>18</v>
+      </c>
+      <c r="F103">
+        <v>69</v>
+      </c>
+      <c r="G103" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" t="s">
+        <v>205</v>
+      </c>
+      <c r="E104">
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>137</v>
+      </c>
+      <c r="G104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" t="s">
+        <v>205</v>
+      </c>
+      <c r="E105">
+        <v>18</v>
+      </c>
+      <c r="F105">
+        <v>205</v>
+      </c>
+      <c r="G105" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" t="s">
+        <v>205</v>
+      </c>
+      <c r="E106">
+        <v>17</v>
+      </c>
+      <c r="F106">
+        <v>273</v>
+      </c>
+      <c r="G106" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" t="s">
+        <v>205</v>
+      </c>
+      <c r="E107">
+        <v>17</v>
+      </c>
+      <c r="F107">
+        <v>341</v>
+      </c>
+      <c r="G107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" t="s">
+        <v>205</v>
+      </c>
+      <c r="E108">
+        <v>18</v>
+      </c>
+      <c r="F108">
+        <v>273</v>
+      </c>
+      <c r="G108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>341</v>
+      </c>
+      <c r="G109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110">
+        <v>19</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111">
+        <v>19</v>
+      </c>
+      <c r="F111">
+        <v>69</v>
+      </c>
+      <c r="G111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112" t="s">
+        <v>218</v>
+      </c>
+      <c r="E112">
+        <v>19</v>
+      </c>
+      <c r="F112">
+        <v>137</v>
+      </c>
+      <c r="G112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>165</v>
+      </c>
+      <c r="D113" t="s">
+        <v>218</v>
+      </c>
+      <c r="E113">
+        <v>19</v>
+      </c>
+      <c r="F113">
+        <v>205</v>
+      </c>
+      <c r="G113" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" t="s">
+        <v>218</v>
+      </c>
+      <c r="E114">
+        <v>20</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>165</v>
+      </c>
+      <c r="D115" t="s">
+        <v>218</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <v>69</v>
+      </c>
+      <c r="G115" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" t="s">
+        <v>218</v>
+      </c>
+      <c r="E116">
+        <v>20</v>
+      </c>
+      <c r="F116">
+        <v>137</v>
+      </c>
+      <c r="G116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" t="s">
+        <v>218</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+      <c r="F117">
+        <v>205</v>
+      </c>
+      <c r="G117" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" t="s">
+        <v>218</v>
+      </c>
+      <c r="E118">
+        <v>19</v>
+      </c>
+      <c r="F118">
+        <v>273</v>
+      </c>
+      <c r="G118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" t="s">
+        <v>218</v>
+      </c>
+      <c r="E119">
+        <v>19</v>
+      </c>
+      <c r="F119">
+        <v>341</v>
+      </c>
+      <c r="G119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>165</v>
+      </c>
+      <c r="D120" t="s">
+        <v>218</v>
+      </c>
+      <c r="E120">
+        <v>20</v>
+      </c>
+      <c r="F120">
+        <v>273</v>
+      </c>
+      <c r="G120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" t="s">
+        <v>218</v>
+      </c>
+      <c r="E121">
+        <v>20</v>
+      </c>
+      <c r="F121">
+        <v>341</v>
+      </c>
+      <c r="G121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>230</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122">
+        <v>21</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123">
+        <v>21</v>
+      </c>
+      <c r="F123">
+        <v>69</v>
+      </c>
+      <c r="G123" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>233</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>165</v>
+      </c>
+      <c r="D124" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124">
+        <v>21</v>
+      </c>
+      <c r="F124">
+        <v>137</v>
+      </c>
+      <c r="G124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>165</v>
+      </c>
+      <c r="D125" t="s">
+        <v>231</v>
+      </c>
+      <c r="E125">
+        <v>21</v>
+      </c>
+      <c r="F125">
+        <v>205</v>
+      </c>
+      <c r="G125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>165</v>
+      </c>
+      <c r="D126" t="s">
+        <v>231</v>
+      </c>
+      <c r="E126">
+        <v>22</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>165</v>
+      </c>
+      <c r="D127" t="s">
+        <v>231</v>
+      </c>
+      <c r="E127">
+        <v>22</v>
+      </c>
+      <c r="F127">
+        <v>69</v>
+      </c>
+      <c r="G127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" t="s">
+        <v>231</v>
+      </c>
+      <c r="E128">
+        <v>22</v>
+      </c>
+      <c r="F128">
+        <v>137</v>
+      </c>
+      <c r="G128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>238</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129" t="s">
+        <v>231</v>
+      </c>
+      <c r="E129">
+        <v>22</v>
+      </c>
+      <c r="F129">
+        <v>205</v>
+      </c>
+      <c r="G129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" t="s">
+        <v>231</v>
+      </c>
+      <c r="E130">
+        <v>21</v>
+      </c>
+      <c r="F130">
+        <v>273</v>
+      </c>
+      <c r="G130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>240</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>165</v>
+      </c>
+      <c r="D131" t="s">
+        <v>231</v>
+      </c>
+      <c r="E131">
+        <v>21</v>
+      </c>
+      <c r="F131">
+        <v>341</v>
+      </c>
+      <c r="G131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>241</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>165</v>
+      </c>
+      <c r="D132" t="s">
+        <v>231</v>
+      </c>
+      <c r="E132">
+        <v>22</v>
+      </c>
+      <c r="F132">
+        <v>273</v>
+      </c>
+      <c r="G132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>165</v>
+      </c>
+      <c r="D133" t="s">
+        <v>231</v>
+      </c>
+      <c r="E133">
+        <v>22</v>
+      </c>
+      <c r="F133">
+        <v>341</v>
+      </c>
+      <c r="G133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>243</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>165</v>
+      </c>
+      <c r="D134" t="s">
+        <v>244</v>
+      </c>
+      <c r="E134">
+        <v>23</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>165</v>
+      </c>
+      <c r="D135" t="s">
+        <v>244</v>
+      </c>
+      <c r="E135">
+        <v>23</v>
+      </c>
+      <c r="F135">
+        <v>69</v>
+      </c>
+      <c r="G135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>246</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" t="s">
+        <v>244</v>
+      </c>
+      <c r="E136">
+        <v>23</v>
+      </c>
+      <c r="F136">
+        <v>137</v>
+      </c>
+      <c r="G136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>247</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>165</v>
+      </c>
+      <c r="D137" t="s">
+        <v>244</v>
+      </c>
+      <c r="E137">
+        <v>23</v>
+      </c>
+      <c r="F137">
+        <v>205</v>
+      </c>
+      <c r="G137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>248</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>165</v>
+      </c>
+      <c r="D138" t="s">
+        <v>244</v>
+      </c>
+      <c r="E138">
+        <v>24</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>249</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>165</v>
+      </c>
+      <c r="D139" t="s">
+        <v>244</v>
+      </c>
+      <c r="E139">
+        <v>24</v>
+      </c>
+      <c r="F139">
+        <v>69</v>
+      </c>
+      <c r="G139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>165</v>
+      </c>
+      <c r="D140" t="s">
+        <v>244</v>
+      </c>
+      <c r="E140">
+        <v>24</v>
+      </c>
+      <c r="F140">
+        <v>137</v>
+      </c>
+      <c r="G140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>251</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>165</v>
+      </c>
+      <c r="D141" t="s">
+        <v>244</v>
+      </c>
+      <c r="E141">
+        <v>24</v>
+      </c>
+      <c r="F141">
+        <v>205</v>
+      </c>
+      <c r="G141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>165</v>
+      </c>
+      <c r="D142" t="s">
+        <v>244</v>
+      </c>
+      <c r="E142">
+        <v>23</v>
+      </c>
+      <c r="F142">
+        <v>273</v>
+      </c>
+      <c r="G142" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>253</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>165</v>
+      </c>
+      <c r="D143" t="s">
+        <v>244</v>
+      </c>
+      <c r="E143">
+        <v>23</v>
+      </c>
+      <c r="F143">
+        <v>341</v>
+      </c>
+      <c r="G143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>165</v>
+      </c>
+      <c r="D144" t="s">
+        <v>244</v>
+      </c>
+      <c r="E144">
+        <v>24</v>
+      </c>
+      <c r="F144">
+        <v>273</v>
+      </c>
+      <c r="G144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>255</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>165</v>
+      </c>
+      <c r="D145" t="s">
+        <v>244</v>
+      </c>
+      <c r="E145">
+        <v>24</v>
+      </c>
+      <c r="F145">
+        <v>341</v>
+      </c>
+      <c r="G145" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147"/>
       <c r="B147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149"/>
       <c r="B149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151"/>
       <c r="B151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153"/>
       <c r="B153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155"/>
       <c r="B155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157"/>
       <c r="B157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159"/>
       <c r="B159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160"/>
       <c r="B160"/>
     </row>
@@ -3623,6 +5640,10 @@
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390"/>
       <c r="B390"/>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391"/>
+      <c r="B391"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6639,8 +8660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B3F856-4532-4CE6-9B0F-DD11EBD8C6EC}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6698,7 +8719,7 @@
         <v>3.3</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6895,7 +8916,9 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2">
+        <v>1.8</v>
+      </c>
       <c r="C30" s="1">
         <v>5</v>
       </c>

--- a/test_data/fixtures.xlsx
+++ b/test_data/fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Code Projects\sidekick\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663850C-7D7F-4313-9435-5ED10318A25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B8C73-884B-463B-8F92-A111C47EE88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{B676AC8D-178C-49D1-AB06-1BD2EB3E51D7}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="102">
   <si>
     <t>Patt 2013</t>
   </si>
@@ -357,34 +357,7 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>SpixH</t>
-  </si>
-  <si>
-    <t>Shutters enabled</t>
-  </si>
-  <si>
-    <t>Extended</t>
-  </si>
-  <si>
-    <t>LX9 LT09 (B)</t>
-  </si>
-  <si>
-    <t>LX10 LT10 (B)</t>
-  </si>
-  <si>
-    <t>LX11 LT11 (B)</t>
-  </si>
-  <si>
-    <t>LX13 LT13 (B)</t>
-  </si>
-  <si>
-    <t>DSL Main Stage Floor (B)</t>
-  </si>
-  <si>
-    <t>Catwalk SL (B)</t>
-  </si>
-  <si>
-    <t>B-Stage SL (B)</t>
+    <t>LX1 TOP LT01 (A)</t>
   </si>
 </sst>
 </file>
@@ -929,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488659CA-7F71-4C5B-A05A-0142058ADA96}">
   <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,7 +938,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
-        <v>645</v>
+        <v>604</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>7</v>
@@ -974,19 +947,19 @@
         <v>98</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E2" s="14">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F2" s="14">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
-        <v>646</v>
+        <v>605</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>7</v>
@@ -995,19 +968,19 @@
         <v>98</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E3" s="16">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F3" s="16">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
-        <v>647</v>
+        <v>606</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>7</v>
@@ -1016,19 +989,19 @@
         <v>98</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E4" s="14">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F4" s="14">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
-        <v>648</v>
+        <v>607</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>7</v>
@@ -1037,19 +1010,19 @@
         <v>98</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E5" s="16">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F5" s="16">
-        <v>223</v>
+        <v>323</v>
       </c>
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
-        <v>649</v>
+        <v>608</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>7</v>
@@ -1058,19 +1031,19 @@
         <v>98</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E6" s="14">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F6" s="14">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
-        <v>650</v>
+        <v>609</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>7</v>
@@ -1079,19 +1052,19 @@
         <v>98</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E7" s="16">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F7" s="16">
-        <v>371</v>
+        <v>208</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
-        <v>651</v>
+        <v>610</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>7</v>
@@ -1100,19 +1073,19 @@
         <v>98</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" s="14">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F8" s="14">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
-        <v>652</v>
+        <v>611</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
@@ -1121,19 +1094,19 @@
         <v>98</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9" s="16">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F9" s="16">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
-        <v>653</v>
+        <v>612</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>7</v>
@@ -1142,19 +1115,19 @@
         <v>98</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="14">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F10" s="14">
-        <v>149</v>
+        <v>430</v>
       </c>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>7</v>
@@ -1163,19 +1136,19 @@
         <v>98</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E11" s="16">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F11" s="16">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
-        <v>655</v>
+        <v>614</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>7</v>
@@ -1184,19 +1157,19 @@
         <v>98</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E12" s="14">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F12" s="14">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
-        <v>656</v>
+        <v>615</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>7</v>
@@ -1205,19 +1178,19 @@
         <v>98</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" s="16">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F13" s="16">
-        <v>371</v>
+        <v>282</v>
       </c>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
-        <v>657</v>
+        <v>616</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>7</v>
@@ -1226,19 +1199,19 @@
         <v>98</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E14" s="14">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F14" s="14">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <v>658</v>
+        <v>617</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>7</v>
@@ -1247,19 +1220,19 @@
         <v>98</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E15" s="16">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F15" s="16">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
-        <v>659</v>
+        <v>618</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>7</v>
@@ -1268,61 +1241,61 @@
         <v>98</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E16" s="14">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F16" s="14">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
-        <v>443</v>
+        <v>619</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E17" s="16">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F17" s="16">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
-        <v>434</v>
+        <v>620</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E18" s="14">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F18" s="14">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>44</v>
@@ -1331,19 +1304,19 @@
         <v>99</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E19" s="16">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F19" s="16">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>44</v>
@@ -1352,19 +1325,19 @@
         <v>99</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E20" s="14">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F20" s="14">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>44</v>
@@ -1373,19 +1346,19 @@
         <v>99</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E21" s="16">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F21" s="16">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>44</v>
@@ -1394,19 +1367,19 @@
         <v>99</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E22" s="14">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F22" s="14">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>44</v>
@@ -1415,19 +1388,19 @@
         <v>99</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E23" s="16">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F23" s="16">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>44</v>
@@ -1436,19 +1409,19 @@
         <v>99</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E24" s="14">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F24" s="14">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>44</v>
@@ -1457,250 +1430,250 @@
         <v>99</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E25" s="16">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F25" s="16">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
-        <v>14</v>
+        <v>408</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E26" s="14">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F26" s="14">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
-        <v>15</v>
+        <v>409</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E27" s="16">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F27" s="16">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
-        <v>16</v>
+        <v>410</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E28" s="14">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F28" s="14">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
-        <v>17</v>
+        <v>411</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E29" s="16">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F29" s="16">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
-        <v>123</v>
+        <v>412</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E30" s="14">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F30" s="14">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E31" s="16">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F31" s="16">
-        <v>350</v>
+        <v>52</v>
       </c>
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
-        <v>125</v>
+        <v>414</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E32" s="14">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F32" s="14">
-        <v>366</v>
+        <v>69</v>
       </c>
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
-        <v>126</v>
+        <v>415</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E33" s="16">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F33" s="16">
-        <v>382</v>
+        <v>1</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
-        <v>127</v>
+        <v>416</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E34" s="14">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F34" s="14">
-        <v>398</v>
+        <v>18</v>
       </c>
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
-        <v>128</v>
+        <v>417</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E35" s="16">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F35" s="16">
-        <v>414</v>
+        <v>35</v>
       </c>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
-        <v>129</v>
+        <v>1418</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E36" s="14">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F36" s="14">
-        <v>430</v>
+        <v>52</v>
       </c>
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>23</v>
@@ -1709,2387 +1682,1139 @@
         <v>100</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E37" s="16">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F37" s="16">
-        <v>446</v>
+        <v>69</v>
       </c>
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
-        <v>716</v>
+        <v>113</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E38" s="14">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F38" s="14">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
-        <v>717</v>
+        <v>114</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E39" s="16">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F39" s="16">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
-        <v>718</v>
+        <v>115</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E40" s="14">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F40" s="14">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
-        <v>719</v>
+        <v>116</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E41" s="16">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F41" s="16">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
-        <v>720</v>
+        <v>117</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E42" s="14">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F42" s="14">
-        <v>297</v>
+        <v>86</v>
       </c>
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
-        <v>721</v>
+        <v>118</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E43" s="16">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F43" s="16">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
-        <v>722</v>
+        <v>119</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E44" s="14">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F44" s="14">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
-        <v>723</v>
+        <v>120</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E45" s="16">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F45" s="16">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
-        <v>724</v>
+        <v>121</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E46" s="14">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F46" s="14">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
-        <v>725</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="16">
-        <v>30</v>
-      </c>
-      <c r="F47" s="16">
-        <v>223</v>
-      </c>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
-        <v>726</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="14">
-        <v>30</v>
-      </c>
-      <c r="F48" s="14">
-        <v>297</v>
-      </c>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="15">
-        <v>727</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="16">
-        <v>30</v>
-      </c>
-      <c r="F49" s="16">
-        <v>371</v>
-      </c>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
-        <v>728</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="14">
-        <v>31</v>
-      </c>
-      <c r="F50" s="14">
-        <v>1</v>
-      </c>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="15">
-        <v>729</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="16">
-        <v>31</v>
-      </c>
-      <c r="F51" s="16">
-        <v>75</v>
-      </c>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
-        <v>730</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="14">
-        <v>31</v>
-      </c>
-      <c r="F52" s="14">
-        <v>149</v>
-      </c>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="15">
-        <v>1150</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="16">
-        <v>32</v>
-      </c>
-      <c r="F53" s="16">
-        <v>90</v>
-      </c>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
-        <v>151</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="14">
-        <v>32</v>
-      </c>
-      <c r="F54" s="14">
-        <v>195</v>
-      </c>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="15">
-        <v>152</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="16">
-        <v>32</v>
-      </c>
-      <c r="F55" s="16">
-        <v>300</v>
-      </c>
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
-        <v>153</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="14">
-        <v>32</v>
-      </c>
-      <c r="F56" s="14">
-        <v>405</v>
-      </c>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="15">
-        <v>154</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="16">
-        <v>33</v>
-      </c>
-      <c r="F57" s="16">
-        <v>1</v>
-      </c>
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
-        <v>155</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="14">
-        <v>33</v>
-      </c>
-      <c r="F58" s="14">
-        <v>106</v>
-      </c>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="15">
-        <v>156</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="16">
-        <v>33</v>
-      </c>
-      <c r="F59" s="16">
-        <v>211</v>
-      </c>
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
       <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
-        <v>519</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="14">
-        <v>32</v>
-      </c>
-      <c r="F60" s="14">
-        <v>1</v>
-      </c>
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="15">
-        <v>520</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="16">
-        <v>32</v>
-      </c>
-      <c r="F61" s="16">
-        <v>106</v>
-      </c>
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
-        <v>521</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="14">
-        <v>32</v>
-      </c>
-      <c r="F62" s="14">
-        <v>211</v>
-      </c>
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="15">
-        <v>522</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="16">
-        <v>32</v>
-      </c>
-      <c r="F63" s="16">
-        <v>316</v>
-      </c>
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
-        <v>523</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="14">
-        <v>32</v>
-      </c>
-      <c r="F64" s="14">
-        <v>421</v>
-      </c>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
       <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="15">
-        <v>524</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="16">
-        <v>33</v>
-      </c>
-      <c r="F65" s="16">
-        <v>17</v>
-      </c>
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="13">
-        <v>525</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="14">
-        <v>33</v>
-      </c>
-      <c r="F66" s="14">
-        <v>122</v>
-      </c>
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="15">
-        <v>526</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="16">
-        <v>33</v>
-      </c>
-      <c r="F67" s="16">
-        <v>227</v>
-      </c>
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
-        <v>746</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="14">
-        <v>34</v>
-      </c>
-      <c r="F68" s="14">
-        <v>1</v>
-      </c>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="15">
-        <v>747</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="16">
-        <v>34</v>
-      </c>
-      <c r="F69" s="16">
-        <v>75</v>
-      </c>
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
       <c r="G69" s="18"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
-        <v>748</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="14">
-        <v>34</v>
-      </c>
-      <c r="F70" s="14">
-        <v>149</v>
-      </c>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="15">
-        <v>749</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" s="16">
-        <v>34</v>
-      </c>
-      <c r="F71" s="16">
-        <v>223</v>
-      </c>
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
       <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
-        <v>750</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E72" s="14">
-        <v>34</v>
-      </c>
-      <c r="F72" s="14">
-        <v>297</v>
-      </c>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="15">
-        <v>751</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E73" s="16">
-        <v>34</v>
-      </c>
-      <c r="F73" s="16">
-        <v>371</v>
-      </c>
+      <c r="A73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
-        <v>752</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="14">
-        <v>35</v>
-      </c>
-      <c r="F74" s="14">
-        <v>1</v>
-      </c>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="15">
-        <v>753</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E75" s="16">
-        <v>35</v>
-      </c>
-      <c r="F75" s="16">
-        <v>75</v>
-      </c>
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
-        <v>754</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76" s="14">
-        <v>35</v>
-      </c>
-      <c r="F76" s="14">
-        <v>149</v>
-      </c>
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="15">
-        <v>755</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="16">
-        <v>35</v>
-      </c>
-      <c r="F77" s="16">
-        <v>223</v>
-      </c>
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="18"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="13">
-        <v>756</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" s="14">
-        <v>35</v>
-      </c>
-      <c r="F78" s="14">
-        <v>297</v>
-      </c>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="17"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="15">
-        <v>757</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E79" s="16">
-        <v>35</v>
-      </c>
-      <c r="F79" s="16">
-        <v>371</v>
-      </c>
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
       <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
-        <v>758</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" s="14">
-        <v>36</v>
-      </c>
-      <c r="F80" s="14">
-        <v>1</v>
-      </c>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="15">
-        <v>759</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="16">
-        <v>36</v>
-      </c>
-      <c r="F81" s="16">
-        <v>75</v>
-      </c>
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
       <c r="G81" s="18"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="13">
-        <v>760</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E82" s="14">
-        <v>36</v>
-      </c>
-      <c r="F82" s="14">
-        <v>149</v>
-      </c>
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="15">
-        <v>458</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" s="16">
-        <v>37</v>
-      </c>
-      <c r="F83" s="16">
-        <v>1</v>
-      </c>
+      <c r="A83" s="15"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
       <c r="G83" s="18"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="13">
-        <v>459</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="14">
-        <v>37</v>
-      </c>
-      <c r="F84" s="14">
-        <v>18</v>
-      </c>
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="17"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="15">
-        <v>460</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="16">
-        <v>37</v>
-      </c>
-      <c r="F85" s="16">
-        <v>35</v>
-      </c>
+      <c r="A85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
       <c r="G85" s="18"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="13">
-        <v>461</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="14">
-        <v>37</v>
-      </c>
-      <c r="F86" s="14">
-        <v>52</v>
-      </c>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
       <c r="G86" s="17"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="15">
-        <v>680</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E87" s="16">
-        <v>42</v>
-      </c>
-      <c r="F87" s="16">
-        <v>1</v>
-      </c>
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="18"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="13">
-        <v>681</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="14">
-        <v>42</v>
-      </c>
-      <c r="F88" s="14">
-        <v>91</v>
-      </c>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
       <c r="G88" s="17"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="15">
-        <v>682</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E89" s="16">
-        <v>42</v>
-      </c>
-      <c r="F89" s="16">
-        <v>181</v>
-      </c>
+      <c r="A89" s="15"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="18"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="13">
-        <v>683</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E90" s="14">
-        <v>42</v>
-      </c>
-      <c r="F90" s="14">
-        <v>271</v>
-      </c>
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="17"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="15">
-        <v>684</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E91" s="16">
-        <v>42</v>
-      </c>
-      <c r="F91" s="16">
-        <v>361</v>
-      </c>
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
       <c r="G91" s="18"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="13">
-        <v>685</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" s="14">
-        <v>43</v>
-      </c>
-      <c r="F92" s="14">
-        <v>1</v>
-      </c>
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="17"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="15">
-        <v>686</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E93" s="16">
-        <v>43</v>
-      </c>
-      <c r="F93" s="16">
-        <v>91</v>
-      </c>
+      <c r="A93" s="15"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
       <c r="G93" s="18"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="13">
-        <v>687</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E94" s="14">
-        <v>43</v>
-      </c>
-      <c r="F94" s="14">
-        <v>181</v>
-      </c>
+      <c r="A94" s="13"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="17"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="15">
-        <v>688</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E95" s="16">
-        <v>43</v>
-      </c>
-      <c r="F95" s="16">
-        <v>271</v>
-      </c>
+      <c r="A95" s="15"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="18"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="13">
-        <v>689</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E96" s="14">
-        <v>43</v>
-      </c>
-      <c r="F96" s="14">
-        <v>361</v>
-      </c>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="17"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="15">
-        <v>690</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E97" s="16">
-        <v>44</v>
-      </c>
-      <c r="F97" s="16">
-        <v>1</v>
-      </c>
+      <c r="A97" s="15"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
       <c r="G97" s="18"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="13">
-        <v>691</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E98" s="14">
-        <v>44</v>
-      </c>
-      <c r="F98" s="14">
-        <v>91</v>
-      </c>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
       <c r="G98" s="17"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="15">
-        <v>692</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E99" s="16">
-        <v>44</v>
-      </c>
-      <c r="F99" s="16">
-        <v>181</v>
-      </c>
+      <c r="A99" s="15"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
       <c r="G99" s="18"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="13">
-        <v>693</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E100" s="14">
-        <v>44</v>
-      </c>
-      <c r="F100" s="14">
-        <v>271</v>
-      </c>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
       <c r="G100" s="17"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="15">
-        <v>478</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" s="16">
-        <v>45</v>
-      </c>
-      <c r="F101" s="16">
-        <v>1</v>
-      </c>
+      <c r="A101" s="15"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="18"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="13">
-        <v>479</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" s="14">
-        <v>45</v>
-      </c>
-      <c r="F102" s="14">
-        <v>18</v>
-      </c>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
       <c r="G102" s="17"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="15">
-        <v>480</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="16">
-        <v>45</v>
-      </c>
-      <c r="F103" s="16">
-        <v>35</v>
-      </c>
+      <c r="A103" s="15"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
       <c r="G103" s="18"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="13">
-        <v>481</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E104" s="14">
-        <v>42</v>
-      </c>
-      <c r="F104" s="14">
-        <v>451</v>
-      </c>
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
       <c r="G104" s="17"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="15">
-        <v>482</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E105" s="16">
-        <v>42</v>
-      </c>
-      <c r="F105" s="16">
-        <v>468</v>
-      </c>
+      <c r="A105" s="15"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
       <c r="G105" s="18"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="13">
-        <v>483</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E106" s="14">
-        <v>42</v>
-      </c>
-      <c r="F106" s="14">
-        <v>485</v>
-      </c>
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="17"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="15">
-        <v>174</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E107" s="16">
-        <v>42</v>
-      </c>
-      <c r="F107" s="16">
-        <v>75</v>
-      </c>
+      <c r="A107" s="15"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
       <c r="G107" s="18"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="13">
-        <v>175</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E108" s="14">
-        <v>42</v>
-      </c>
-      <c r="F108" s="14">
-        <v>165</v>
-      </c>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
       <c r="G108" s="17"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="15">
-        <v>176</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E109" s="16">
-        <v>42</v>
-      </c>
-      <c r="F109" s="16">
-        <v>255</v>
-      </c>
+      <c r="A109" s="15"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
       <c r="G109" s="18"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="13">
-        <v>177</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E110" s="14">
-        <v>42</v>
-      </c>
-      <c r="F110" s="14">
-        <v>345</v>
-      </c>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
       <c r="G110" s="17"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="15">
-        <v>178</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111" s="16">
-        <v>42</v>
-      </c>
-      <c r="F111" s="16">
-        <v>435</v>
-      </c>
+      <c r="A111" s="15"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
       <c r="G111" s="18"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="13">
-        <v>179</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E112" s="14">
-        <v>43</v>
-      </c>
-      <c r="F112" s="14">
-        <v>75</v>
-      </c>
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
       <c r="G112" s="17"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="15">
-        <v>180</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E113" s="16">
-        <v>43</v>
-      </c>
-      <c r="F113" s="16">
-        <v>165</v>
-      </c>
+      <c r="A113" s="15"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
       <c r="G113" s="18"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="13">
-        <v>181</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E114" s="14">
-        <v>43</v>
-      </c>
-      <c r="F114" s="14">
-        <v>255</v>
-      </c>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
       <c r="G114" s="17"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="15">
-        <v>182</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E115" s="16">
-        <v>43</v>
-      </c>
-      <c r="F115" s="16">
-        <v>345</v>
-      </c>
+      <c r="A115" s="15"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
       <c r="G115" s="18"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="13">
-        <v>183</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E116" s="14">
-        <v>43</v>
-      </c>
-      <c r="F116" s="14">
-        <v>435</v>
-      </c>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="17"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="15">
-        <v>184</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E117" s="16">
-        <v>44</v>
-      </c>
-      <c r="F117" s="16">
-        <v>75</v>
-      </c>
+      <c r="A117" s="15"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
       <c r="G117" s="18"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="13">
-        <v>185</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E118" s="14">
-        <v>44</v>
-      </c>
-      <c r="F118" s="14">
-        <v>165</v>
-      </c>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="17"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="15">
-        <v>186</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E119" s="16">
-        <v>44</v>
-      </c>
-      <c r="F119" s="16">
-        <v>255</v>
-      </c>
+      <c r="A119" s="15"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
       <c r="G119" s="18"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="13">
-        <v>187</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E120" s="14">
-        <v>44</v>
-      </c>
-      <c r="F120" s="14">
-        <v>345</v>
-      </c>
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="17"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="15">
-        <v>327</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E121" s="16">
-        <v>53</v>
-      </c>
-      <c r="F121" s="16">
-        <v>1</v>
-      </c>
+      <c r="A121" s="15"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
       <c r="G121" s="18"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="13">
-        <v>328</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E122" s="14">
-        <v>53</v>
-      </c>
-      <c r="F122" s="14">
-        <v>62</v>
-      </c>
+      <c r="A122" s="13"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
       <c r="G122" s="17"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="15">
-        <v>329</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" s="16">
-        <v>53</v>
-      </c>
-      <c r="F123" s="16">
-        <v>123</v>
-      </c>
+      <c r="A123" s="15"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
       <c r="G123" s="18"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="13">
-        <v>330</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E124" s="14">
-        <v>53</v>
-      </c>
-      <c r="F124" s="14">
-        <v>184</v>
-      </c>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
       <c r="G124" s="17"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="15">
-        <v>331</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E125" s="16">
-        <v>53</v>
-      </c>
-      <c r="F125" s="16">
-        <v>245</v>
-      </c>
+      <c r="A125" s="15"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
       <c r="G125" s="18"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="13">
-        <v>332</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E126" s="14">
-        <v>53</v>
-      </c>
-      <c r="F126" s="14">
-        <v>306</v>
-      </c>
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
       <c r="G126" s="17"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="15">
-        <v>333</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E127" s="16">
-        <v>53</v>
-      </c>
-      <c r="F127" s="16">
-        <v>367</v>
-      </c>
+      <c r="A127" s="15"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
       <c r="G127" s="18"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="13">
-        <v>334</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E128" s="14">
-        <v>53</v>
-      </c>
-      <c r="F128" s="14">
-        <v>428</v>
-      </c>
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="17"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="15">
-        <v>335</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E129" s="16">
-        <v>54</v>
-      </c>
-      <c r="F129" s="16">
-        <v>1</v>
-      </c>
+      <c r="A129" s="15"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
       <c r="G129" s="18"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="13">
-        <v>336</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E130" s="14">
-        <v>54</v>
-      </c>
-      <c r="F130" s="14">
-        <v>62</v>
-      </c>
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
       <c r="G130" s="17"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="15">
-        <v>337</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E131" s="16">
-        <v>54</v>
-      </c>
-      <c r="F131" s="16">
-        <v>123</v>
-      </c>
+      <c r="A131" s="15"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
       <c r="G131" s="18"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="13">
-        <v>338</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E132" s="14">
-        <v>54</v>
-      </c>
-      <c r="F132" s="14">
-        <v>184</v>
-      </c>
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="17"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="15">
-        <v>339</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E133" s="16">
-        <v>54</v>
-      </c>
-      <c r="F133" s="16">
-        <v>245</v>
-      </c>
+      <c r="A133" s="15"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
       <c r="G133" s="18"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="13">
-        <v>340</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E134" s="14">
-        <v>54</v>
-      </c>
-      <c r="F134" s="14">
-        <v>306</v>
-      </c>
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
       <c r="G134" s="17"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="15">
-        <v>341</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E135" s="16">
-        <v>54</v>
-      </c>
-      <c r="F135" s="16">
-        <v>367</v>
-      </c>
+      <c r="A135" s="15"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
       <c r="G135" s="18"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="13">
-        <v>342</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E136" s="14">
-        <v>54</v>
-      </c>
-      <c r="F136" s="14">
-        <v>428</v>
-      </c>
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
       <c r="G136" s="17"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="15">
-        <v>343</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E137" s="16">
-        <v>55</v>
-      </c>
-      <c r="F137" s="16">
-        <v>1</v>
-      </c>
+      <c r="A137" s="15"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
       <c r="G137" s="18"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="13">
-        <v>344</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E138" s="14">
-        <v>55</v>
-      </c>
-      <c r="F138" s="14">
-        <v>62</v>
-      </c>
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
       <c r="G138" s="17"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="15">
-        <v>345</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E139" s="16">
-        <v>55</v>
-      </c>
-      <c r="F139" s="16">
-        <v>123</v>
-      </c>
+      <c r="A139" s="15"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
       <c r="G139" s="18"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="13">
-        <v>346</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E140" s="14">
-        <v>55</v>
-      </c>
-      <c r="F140" s="14">
-        <v>184</v>
-      </c>
+      <c r="A140" s="13"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
       <c r="G140" s="17"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="15">
-        <v>347</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E141" s="16">
-        <v>55</v>
-      </c>
-      <c r="F141" s="16">
-        <v>245</v>
-      </c>
+      <c r="A141" s="15"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
       <c r="G141" s="18"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="13">
-        <v>348</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E142" s="14">
-        <v>52</v>
-      </c>
-      <c r="F142" s="14">
-        <v>1</v>
-      </c>
+      <c r="A142" s="13"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
       <c r="G142" s="17"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="15">
-        <v>349</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E143" s="16">
-        <v>52</v>
-      </c>
-      <c r="F143" s="16">
-        <v>62</v>
-      </c>
+      <c r="A143" s="15"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
       <c r="G143" s="18"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="13">
-        <v>350</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E144" s="14">
-        <v>52</v>
-      </c>
-      <c r="F144" s="14">
-        <v>123</v>
-      </c>
+      <c r="A144" s="13"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
       <c r="G144" s="17"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="15">
-        <v>351</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E145" s="16">
-        <v>52</v>
-      </c>
-      <c r="F145" s="16">
-        <v>184</v>
-      </c>
+      <c r="A145" s="15"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
       <c r="G145" s="18"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="13">
-        <v>352</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E146" s="14">
-        <v>52</v>
-      </c>
-      <c r="F146" s="14">
-        <v>245</v>
-      </c>
+      <c r="A146" s="13"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
       <c r="G146" s="17"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="15">
-        <v>357</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D147" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E147" s="16">
-        <v>51</v>
-      </c>
-      <c r="F147" s="16">
-        <v>62</v>
-      </c>
+      <c r="A147" s="15"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
       <c r="G147" s="18"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="13">
-        <v>358</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E148" s="14">
-        <v>51</v>
-      </c>
-      <c r="F148" s="14">
-        <v>123</v>
-      </c>
+      <c r="A148" s="13"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
       <c r="G148" s="17"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="15">
-        <v>359</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E149" s="16">
-        <v>51</v>
-      </c>
-      <c r="F149" s="16">
-        <v>184</v>
-      </c>
+      <c r="A149" s="15"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
       <c r="G149" s="18"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="13">
-        <v>360</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E150" s="14">
-        <v>51</v>
-      </c>
-      <c r="F150" s="14">
-        <v>245</v>
-      </c>
+      <c r="A150" s="13"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
       <c r="G150" s="17"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
